--- a/COMPRAS_pedido.xlsx
+++ b/COMPRAS_pedido.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">seq</t>
   </si>
@@ -41,20 +41,25 @@
   </si>
   <si>
     <t xml:space="preserve">situacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguardando</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,8 +119,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -136,44 +149,67 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/COMPRAS_pedido.xlsx
+++ b/COMPRAS_pedido.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t xml:space="preserve">seq</t>
   </si>
@@ -43,16 +43,17 @@
     <t xml:space="preserve">situacao</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguardando</t>
+    <t xml:space="preserve">Recebido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -119,7 +120,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -129,6 +130,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -149,10 +154,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -194,21 +199,67 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45414</v>
+        <v>45421</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>45422</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>152.5</v>
+        <v>198</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>45398</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>443.8</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>45398</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>848.1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
